--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_595.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_595.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33260-d82623-Reviews-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Quality-Inn-Suites-Westminster-Seal-Beach.h25533.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_595.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_595.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,303 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r515716804-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>33260</t>
+  </si>
+  <si>
+    <t>82623</t>
+  </si>
+  <si>
+    <t>515716804</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Bed bugs!</t>
+  </si>
+  <si>
+    <t>Bed bugs!!! We stayed Aug 4th-7th in room 309. My daughter was chewed up bad, two nights. After the first we figured sand fleas from the beach, or ..something... we never thought of an infested room. The last night we found one of them and took it to the front office. They admitted it. Said they had the mattress replaced the previous week and that they had sprayed. We packed our clothes in plastic bags, and when we got home we had to do laundry out of the backyard. 
+No settlement was offered from the staff. Said we would have to contact the manager by phone, which we did do. Their offer of 1 free night and 10% off the other two nights was not acceptable. This wasn't a situation that happened, this was an ordeal. I put her off and contacted corp, Choice Hotels. They did nothing. They said they don't own the chain, and shut me down. Come to find out, Choice Hotels has LMA's with every different franchisee. They are, in fact, on paper, the employee. CH is a shell corporation designed to avoid and shelter them from the messy side of the business. I would avoid all Choice Hotels properties.
+Finally, the hotel, while attempting to credit my account with the offered settlement, failed three times to get it right. They inadvertently charged my account an additional $705! Incompetent at every level. 
+Oh... the breakfast was...Bed bugs!!! We stayed Aug 4th-7th in room 309. My daughter was chewed up bad, two nights. After the first we figured sand fleas from the beach, or ..something... we never thought of an infested room. The last night we found one of them and took it to the front office. They admitted it. Said they had the mattress replaced the previous week and that they had sprayed. We packed our clothes in plastic bags, and when we got home we had to do laundry out of the backyard. No settlement was offered from the staff. Said we would have to contact the manager by phone, which we did do. Their offer of 1 free night and 10% off the other two nights was not acceptable. This wasn't a situation that happened, this was an ordeal. I put her off and contacted corp, Choice Hotels. They did nothing. They said they don't own the chain, and shut me down. Come to find out, Choice Hotels has LMA's with every different franchisee. They are, in fact, on paper, the employee. CH is a shell corporation designed to avoid and shelter them from the messy side of the business. I would avoid all Choice Hotels properties.Finally, the hotel, while attempting to credit my account with the offered settlement, failed three times to get it right. They inadvertently charged my account an additional $705! Incompetent at every level. Oh... the breakfast was pretty good. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Tiffany T, Manager at Quality Inn &amp; Suites Westminster Seal Beach, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Bed bugs!!! We stayed Aug 4th-7th in room 309. My daughter was chewed up bad, two nights. After the first we figured sand fleas from the beach, or ..something... we never thought of an infested room. The last night we found one of them and took it to the front office. They admitted it. Said they had the mattress replaced the previous week and that they had sprayed. We packed our clothes in plastic bags, and when we got home we had to do laundry out of the backyard. 
+No settlement was offered from the staff. Said we would have to contact the manager by phone, which we did do. Their offer of 1 free night and 10% off the other two nights was not acceptable. This wasn't a situation that happened, this was an ordeal. I put her off and contacted corp, Choice Hotels. They did nothing. They said they don't own the chain, and shut me down. Come to find out, Choice Hotels has LMA's with every different franchisee. They are, in fact, on paper, the employee. CH is a shell corporation designed to avoid and shelter them from the messy side of the business. I would avoid all Choice Hotels properties.
+Finally, the hotel, while attempting to credit my account with the offered settlement, failed three times to get it right. They inadvertently charged my account an additional $705! Incompetent at every level. 
+Oh... the breakfast was...Bed bugs!!! We stayed Aug 4th-7th in room 309. My daughter was chewed up bad, two nights. After the first we figured sand fleas from the beach, or ..something... we never thought of an infested room. The last night we found one of them and took it to the front office. They admitted it. Said they had the mattress replaced the previous week and that they had sprayed. We packed our clothes in plastic bags, and when we got home we had to do laundry out of the backyard. No settlement was offered from the staff. Said we would have to contact the manager by phone, which we did do. Their offer of 1 free night and 10% off the other two nights was not acceptable. This wasn't a situation that happened, this was an ordeal. I put her off and contacted corp, Choice Hotels. They did nothing. They said they don't own the chain, and shut me down. Come to find out, Choice Hotels has LMA's with every different franchisee. They are, in fact, on paper, the employee. CH is a shell corporation designed to avoid and shelter them from the messy side of the business. I would avoid all Choice Hotels properties.Finally, the hotel, while attempting to credit my account with the offered settlement, failed three times to get it right. They inadvertently charged my account an additional $705! Incompetent at every level. Oh... the breakfast was pretty good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r494107115-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>494107115</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Good Value but Nothing Special</t>
+  </si>
+  <si>
+    <t>The hotel was a good value but nothing special. The room and bathroom were clean and looked to be freshly painted.We had problems with the bathroom during our stay. One night we came back to the room to find that water/??? had backed up through the shower drain and onto the bathroom floor. The girl at the front desk did a good job of getting us a nearby room for us to transfer out things and move into. The set up of the shower in the first room was poor. They had installed a curved curtain rod. The shower curtain in the middle was outside the confines of the shower and water ran all over the bathroom floor. The complementary breakfast was not as good as I have had at the local Best Western. After eating there for two days that was enough and I went out and paid for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany T, Manager at Quality Inn &amp; Suites Westminster Seal Beach, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was a good value but nothing special. The room and bathroom were clean and looked to be freshly painted.We had problems with the bathroom during our stay. One night we came back to the room to find that water/??? had backed up through the shower drain and onto the bathroom floor. The girl at the front desk did a good job of getting us a nearby room for us to transfer out things and move into. The set up of the shower in the first room was poor. They had installed a curved curtain rod. The shower curtain in the middle was outside the confines of the shower and water ran all over the bathroom floor. The complementary breakfast was not as good as I have had at the local Best Western. After eating there for two days that was enough and I went out and paid for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r493398515-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>493398515</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Good Spot</t>
+  </si>
+  <si>
+    <t>Good location and not far from the beach. Free parking and a decent full hot breakfast. Shower and tv worked well in the room. Everything was clean and I had no issues. Can stay for under $90 a night so it is a good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Good location and not far from the beach. Free parking and a decent full hot breakfast. Shower and tv worked well in the room. Everything was clean and I had no issues. Can stay for under $90 a night so it is a good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r410622341-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>410622341</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>High value stop</t>
+  </si>
+  <si>
+    <t>I was driving to my next presentation spot in Newport Beach, was already 8pm and didn't have a place to stay for the night.  Saw this quality in on the drive and thought I'd give it a try.  The price was excellent, the room was clean and mattress was firm, and the breakfast was decent for such an inexpensive nights stay.  Overall I'm impressed and would recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I was driving to my next presentation spot in Newport Beach, was already 8pm and didn't have a place to stay for the night.  Saw this quality in on the drive and thought I'd give it a try.  The price was excellent, the room was clean and mattress was firm, and the breakfast was decent for such an inexpensive nights stay.  Overall I'm impressed and would recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r404255522-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>404255522</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Nice room for the price, would stay again.</t>
+  </si>
+  <si>
+    <t>King bed for 1 night.  The room was big and the bed clean &amp; comfy.  The bathroom floor not as clean as it should have been.  We checked in late, so no housekeeping to remedy and no other rooms to switch too.  We ended up doing a tiny bit of cleaning, but acceptable all around.  Good free breakfast and wifi.  Had a bit of problem with the door handle/lock, lot of jiggling done, but again nothing major.  Would stay againMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>King bed for 1 night.  The room was big and the bed clean &amp; comfy.  The bathroom floor not as clean as it should have been.  We checked in late, so no housekeeping to remedy and no other rooms to switch too.  We ended up doing a tiny bit of cleaning, but acceptable all around.  Good free breakfast and wifi.  Had a bit of problem with the door handle/lock, lot of jiggling done, but again nothing major.  Would stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r378352385-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>378352385</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Adult Family Trip</t>
+  </si>
+  <si>
+    <t>Stayed in room 209.  Extended family members had room 202 and 207.  Room 202 was by far superior to our room.Bed was comfortable; not too hard or soft.Lighting in vanity area was bad.  Only one outlet near the sink.  Had to use the desk lamp so that there was enough light.  Bad thing was that the cord had to stretch across the sink.  The rest of the room's outlets were either inaccessible due to furniture placement in front of them or so far away from any furniture that you had to leave your electronics charging on the floor.  The desk area had no outlets for the lamp.Towels were very thin and scratchy.Hotel was clean; breakfast was well stocked, staff was friendly and helpful; definitely a budget hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Stayed in room 209.  Extended family members had room 202 and 207.  Room 202 was by far superior to our room.Bed was comfortable; not too hard or soft.Lighting in vanity area was bad.  Only one outlet near the sink.  Had to use the desk lamp so that there was enough light.  Bad thing was that the cord had to stretch across the sink.  The rest of the room's outlets were either inaccessible due to furniture placement in front of them or so far away from any furniture that you had to leave your electronics charging on the floor.  The desk area had no outlets for the lamp.Towels were very thin and scratchy.Hotel was clean; breakfast was well stocked, staff was friendly and helpful; definitely a budget hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r348037045-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>348037045</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>No, thank you</t>
+  </si>
+  <si>
+    <t>My wife and I were at the place for one night due to fumigation of our apartment. The only thing decent was the comfortable bed. The ac was quite loud. Curtains missing hooks that could not be closed properly to prevent outside light from getting in. The bathroom smelled of urine and the toilet seat was coming off hinges. The area was a bit nasty. We saw a fight on our walk to a Mexican dinner across the street from the motel. The front desk person, an older Asian male, was slow, uninformative, unfriendly and impolite, answered your question with a smirk as though he was doing us a favor, if he decided to answer at all. We forgot our toothbrushes/paste, and saw sign in room stating that essential toiletries were available for the asking at front desk. Once there, the same front desk person pointed out the door and said sarcastically that brushes and paste would be available at a 7-11 nearby, completely unapologetic of misleading information.  That front desk person should not be in the hospitality industry at all let alone working at front desk; there was no hello, goodbye, have a nice stay nor even a smile from this person. He acted the whole time as if we were wasting his time. I would neither recommend nor stay at the place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>My wife and I were at the place for one night due to fumigation of our apartment. The only thing decent was the comfortable bed. The ac was quite loud. Curtains missing hooks that could not be closed properly to prevent outside light from getting in. The bathroom smelled of urine and the toilet seat was coming off hinges. The area was a bit nasty. We saw a fight on our walk to a Mexican dinner across the street from the motel. The front desk person, an older Asian male, was slow, uninformative, unfriendly and impolite, answered your question with a smirk as though he was doing us a favor, if he decided to answer at all. We forgot our toothbrushes/paste, and saw sign in room stating that essential toiletries were available for the asking at front desk. Once there, the same front desk person pointed out the door and said sarcastically that brushes and paste would be available at a 7-11 nearby, completely unapologetic of misleading information.  That front desk person should not be in the hospitality industry at all let alone working at front desk; there was no hello, goodbye, have a nice stay nor even a smile from this person. He acted the whole time as if we were wasting his time. I would neither recommend nor stay at the place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r262525551-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>262525551</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Bed bugs Found!!!</t>
+  </si>
+  <si>
+    <t>Pros:  Nice looking property, large screen flat TV, at least 30+ channels
+Cons: Roaches were found on first night crawling across my nightstand...small but nevertheless roaches, found a total of 3 bedbugs within 3 hours of sleeping
+After going to bed I awoke a couple hours later due to severe itching due to eczema, but when I got up to put some ointment on I decided to check my bed just to be sure.  Sure enough, I discovered a small bedbug near my pillow, but I hadn't been bitten yet.  I killed that one and checked the entire bed, AND sprayed with my bedbug spray.  I was paranoid but finally decided to lay back down after about a half-hour (this was around 3:00am).  A couple hours later I felt a different type of itching...I quickly got up and used my phone's light to light up the bed and found 2 adult bedbugs near the middle of my bed and towards my pillow.  I wasn't so lucky this time.  I had been bitten on my hand, two places on my right tricep and 5 places on my left tricep.  This was 5:30am and I had only about 3 hrs of sleep (on my only day off), from there I packed my bags (this was the first night of a two night stay), loaded up my car and waited for the office to open.  The manager sounded a little aggravated and said...Pros:  Nice looking property, large screen flat TV, at least 30+ channelsCons: Roaches were found on first night crawling across my nightstand...small but nevertheless roaches, found a total of 3 bedbugs within 3 hours of sleepingAfter going to bed I awoke a couple hours later due to severe itching due to eczema, but when I got up to put some ointment on I decided to check my bed just to be sure.  Sure enough, I discovered a small bedbug near my pillow, but I hadn't been bitten yet.  I killed that one and checked the entire bed, AND sprayed with my bedbug spray.  I was paranoid but finally decided to lay back down after about a half-hour (this was around 3:00am).  A couple hours later I felt a different type of itching...I quickly got up and used my phone's light to light up the bed and found 2 adult bedbugs near the middle of my bed and towards my pillow.  I wasn't so lucky this time.  I had been bitten on my hand, two places on my right tricep and 5 places on my left tricep.  This was 5:30am and I had only about 3 hrs of sleep (on my only day off), from there I packed my bags (this was the first night of a two night stay), loaded up my car and waited for the office to open.  The manager sounded a little aggravated and said he would check my room.  I went with him, showed him one of the dead roaches that I left on the bathroom floor (yes, one was crawling along side the bathroom sink), and showed him the small blood stain on the bed sheet that I created when I killed the last bedbug and he refunded my remaining night.  My hotel room # was:  107.  That whole room needs to be fumigated.  I also discovered a very small unidentifiable bug crawling down the shower curtain too!  I've never had a good experience with Knight's Inn.  Their properties, in my opinion, are completely sub-par!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Pros:  Nice looking property, large screen flat TV, at least 30+ channels
+Cons: Roaches were found on first night crawling across my nightstand...small but nevertheless roaches, found a total of 3 bedbugs within 3 hours of sleeping
+After going to bed I awoke a couple hours later due to severe itching due to eczema, but when I got up to put some ointment on I decided to check my bed just to be sure.  Sure enough, I discovered a small bedbug near my pillow, but I hadn't been bitten yet.  I killed that one and checked the entire bed, AND sprayed with my bedbug spray.  I was paranoid but finally decided to lay back down after about a half-hour (this was around 3:00am).  A couple hours later I felt a different type of itching...I quickly got up and used my phone's light to light up the bed and found 2 adult bedbugs near the middle of my bed and towards my pillow.  I wasn't so lucky this time.  I had been bitten on my hand, two places on my right tricep and 5 places on my left tricep.  This was 5:30am and I had only about 3 hrs of sleep (on my only day off), from there I packed my bags (this was the first night of a two night stay), loaded up my car and waited for the office to open.  The manager sounded a little aggravated and said...Pros:  Nice looking property, large screen flat TV, at least 30+ channelsCons: Roaches were found on first night crawling across my nightstand...small but nevertheless roaches, found a total of 3 bedbugs within 3 hours of sleepingAfter going to bed I awoke a couple hours later due to severe itching due to eczema, but when I got up to put some ointment on I decided to check my bed just to be sure.  Sure enough, I discovered a small bedbug near my pillow, but I hadn't been bitten yet.  I killed that one and checked the entire bed, AND sprayed with my bedbug spray.  I was paranoid but finally decided to lay back down after about a half-hour (this was around 3:00am).  A couple hours later I felt a different type of itching...I quickly got up and used my phone's light to light up the bed and found 2 adult bedbugs near the middle of my bed and towards my pillow.  I wasn't so lucky this time.  I had been bitten on my hand, two places on my right tricep and 5 places on my left tricep.  This was 5:30am and I had only about 3 hrs of sleep (on my only day off), from there I packed my bags (this was the first night of a two night stay), loaded up my car and waited for the office to open.  The manager sounded a little aggravated and said he would check my room.  I went with him, showed him one of the dead roaches that I left on the bathroom floor (yes, one was crawling along side the bathroom sink), and showed him the small blood stain on the bed sheet that I created when I killed the last bedbug and he refunded my remaining night.  My hotel room # was:  107.  That whole room needs to be fumigated.  I also discovered a very small unidentifiable bug crawling down the shower curtain too!  I've never had a good experience with Knight's Inn.  Their properties, in my opinion, are completely sub-par!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r219161183-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>219161183</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>Never come back!!!</t>
+  </si>
+  <si>
+    <t>This hotel is also known as Little Saigon Hotel when I searched for a place to stay for July 25/26/2014 weekend during my short trip to LA. I booked/reserved on their web site for two nights at the rate of $100/night.
+So I checked in on Friday evening, the next day while I was out visiting friends, the hotel manager Ms. Van called and asked me to vacate the room or I had to pay higher rate if I wanted to stay. I was totally in shock and speechless when she explained due to high demand, she followed the owner/franchisee instruction to bump the current guests or make them pay higher rate if they want to stay. Needless to say, I was furious but eventually allowed them to charge 30% more for the second night because I was too far away with my friends in another city. I thought what they did was illegal or the manager was lying. Anyway I have receipt of the reservation and have disputed the excess charge with my credit card company.
+I suspected this was not an isolated incident. The majority of hotel guests were Asian like myself, some probably were ripped off by the hotel owner/management too but remained quiet or lacked the will to resolve. I compel to warn others to stay away from this hotel or risk of your vacation being ruined by their questionable tactic.
+About the room, I agree...This hotel is also known as Little Saigon Hotel when I searched for a place to stay for July 25/26/2014 weekend during my short trip to LA. I booked/reserved on their web site for two nights at the rate of $100/night.So I checked in on Friday evening, the next day while I was out visiting friends, the hotel manager Ms. Van called and asked me to vacate the room or I had to pay higher rate if I wanted to stay. I was totally in shock and speechless when she explained due to high demand, she followed the owner/franchisee instruction to bump the current guests or make them pay higher rate if they want to stay. Needless to say, I was furious but eventually allowed them to charge 30% more for the second night because I was too far away with my friends in another city. I thought what they did was illegal or the manager was lying. Anyway I have receipt of the reservation and have disputed the excess charge with my credit card company.I suspected this was not an isolated incident. The majority of hotel guests were Asian like myself, some probably were ripped off by the hotel owner/management too but remained quiet or lacked the will to resolve. I compel to warn others to stay away from this hotel or risk of your vacation being ruined by their questionable tactic.About the room, I agree with others, who reviewed it, I rated it as 1.5 stars. I’d rather pay a little more to stay at a nicer hotel and there are plenty to choose from in the proximity.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This hotel is also known as Little Saigon Hotel when I searched for a place to stay for July 25/26/2014 weekend during my short trip to LA. I booked/reserved on their web site for two nights at the rate of $100/night.
+So I checked in on Friday evening, the next day while I was out visiting friends, the hotel manager Ms. Van called and asked me to vacate the room or I had to pay higher rate if I wanted to stay. I was totally in shock and speechless when she explained due to high demand, she followed the owner/franchisee instruction to bump the current guests or make them pay higher rate if they want to stay. Needless to say, I was furious but eventually allowed them to charge 30% more for the second night because I was too far away with my friends in another city. I thought what they did was illegal or the manager was lying. Anyway I have receipt of the reservation and have disputed the excess charge with my credit card company.
+I suspected this was not an isolated incident. The majority of hotel guests were Asian like myself, some probably were ripped off by the hotel owner/management too but remained quiet or lacked the will to resolve. I compel to warn others to stay away from this hotel or risk of your vacation being ruined by their questionable tactic.
+About the room, I agree...This hotel is also known as Little Saigon Hotel when I searched for a place to stay for July 25/26/2014 weekend during my short trip to LA. I booked/reserved on their web site for two nights at the rate of $100/night.So I checked in on Friday evening, the next day while I was out visiting friends, the hotel manager Ms. Van called and asked me to vacate the room or I had to pay higher rate if I wanted to stay. I was totally in shock and speechless when she explained due to high demand, she followed the owner/franchisee instruction to bump the current guests or make them pay higher rate if they want to stay. Needless to say, I was furious but eventually allowed them to charge 30% more for the second night because I was too far away with my friends in another city. I thought what they did was illegal or the manager was lying. Anyway I have receipt of the reservation and have disputed the excess charge with my credit card company.I suspected this was not an isolated incident. The majority of hotel guests were Asian like myself, some probably were ripped off by the hotel owner/management too but remained quiet or lacked the will to resolve. I compel to warn others to stay away from this hotel or risk of your vacation being ruined by their questionable tactic.About the room, I agree with others, who reviewed it, I rated it as 1.5 stars. I’d rather pay a little more to stay at a nicer hotel and there are plenty to choose from in the proximity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r156209849-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>156209849</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>STAY AWAY!!! Pay the extra dollars for a better hotel!</t>
+  </si>
+  <si>
+    <t>We had booked this reservation based on pictures we had seen on Hotwire. The hotel was not one of the most expensive but it wasn't' one of the cheapest either. I thought that it would be fine. I was way wrong! We got to California super exhausted from a long drive and had to wait until 3:00 pm to check-in. Upon checking in, we got our rooms. The room I got had carpet stains, mismatched furniture, a cracked counter top ... all things that in my mind I thought I could perhaps overlook. I went into the bathroom and there was a pubic hair stuck on the bathtub. That is where things went downhill. I went to a different room from a member of our party and their room stunk like cigarettes (although I had added in the comments that we would need a non-smoking room). The furniture and everything else was horrible as well. We called the front desk and the attendant said that she had no more rooms and would refund our money for both rooms. We got our things and left out of there as soon as we could. I am not a picky person and am very understandable but this hotel was unacceptable. 
+Please think twice about staying here, for a few more bucks you could stay somewhere better. Another thing to notice about this property is that it is overcrowded with big families trying to...We had booked this reservation based on pictures we had seen on Hotwire. The hotel was not one of the most expensive but it wasn't' one of the cheapest either. I thought that it would be fine. I was way wrong! We got to California super exhausted from a long drive and had to wait until 3:00 pm to check-in. Upon checking in, we got our rooms. The room I got had carpet stains, mismatched furniture, a cracked counter top ... all things that in my mind I thought I could perhaps overlook. I went into the bathroom and there was a pubic hair stuck on the bathtub. That is where things went downhill. I went to a different room from a member of our party and their room stunk like cigarettes (although I had added in the comments that we would need a non-smoking room). The furniture and everything else was horrible as well. We called the front desk and the attendant said that she had no more rooms and would refund our money for both rooms. We got our things and left out of there as soon as we could. I am not a picky person and am very understandable but this hotel was unacceptable. Please think twice about staying here, for a few more bucks you could stay somewhere better. Another thing to notice about this property is that it is overcrowded with big families trying to fit 6+ into one bedroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We had booked this reservation based on pictures we had seen on Hotwire. The hotel was not one of the most expensive but it wasn't' one of the cheapest either. I thought that it would be fine. I was way wrong! We got to California super exhausted from a long drive and had to wait until 3:00 pm to check-in. Upon checking in, we got our rooms. The room I got had carpet stains, mismatched furniture, a cracked counter top ... all things that in my mind I thought I could perhaps overlook. I went into the bathroom and there was a pubic hair stuck on the bathtub. That is where things went downhill. I went to a different room from a member of our party and their room stunk like cigarettes (although I had added in the comments that we would need a non-smoking room). The furniture and everything else was horrible as well. We called the front desk and the attendant said that she had no more rooms and would refund our money for both rooms. We got our things and left out of there as soon as we could. I am not a picky person and am very understandable but this hotel was unacceptable. 
+Please think twice about staying here, for a few more bucks you could stay somewhere better. Another thing to notice about this property is that it is overcrowded with big families trying to...We had booked this reservation based on pictures we had seen on Hotwire. The hotel was not one of the most expensive but it wasn't' one of the cheapest either. I thought that it would be fine. I was way wrong! We got to California super exhausted from a long drive and had to wait until 3:00 pm to check-in. Upon checking in, we got our rooms. The room I got had carpet stains, mismatched furniture, a cracked counter top ... all things that in my mind I thought I could perhaps overlook. I went into the bathroom and there was a pubic hair stuck on the bathtub. That is where things went downhill. I went to a different room from a member of our party and their room stunk like cigarettes (although I had added in the comments that we would need a non-smoking room). The furniture and everything else was horrible as well. We called the front desk and the attendant said that she had no more rooms and would refund our money for both rooms. We got our things and left out of there as soon as we could. I am not a picky person and am very understandable but this hotel was unacceptable. Please think twice about staying here, for a few more bucks you could stay somewhere better. Another thing to notice about this property is that it is overcrowded with big families trying to fit 6+ into one bedroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r141777859-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>141777859</t>
+  </si>
+  <si>
+    <t>10/01/2012</t>
+  </si>
+  <si>
+    <t>Very nice motel. Good location.</t>
+  </si>
+  <si>
+    <t>We were very pleased with the accommodations. Motel looks very good, well kept. The room was clean and nicely furnished. We had a non-smoking room on the ground floor as requested and were able to park right in front of our room even after returning from an evening at Huntington Beach--approx. 5 mi. away and easy to get to. The surrounding neighborhood was nice with access to a variety of stores, restaurants and fast-food nearby. This motel is budget priced and would be perfect for a budget-minded family wanting to visit the sights nearby in Anaheim, Buena Park, and Huntington Beach-aka "Surf City". It's right off the 405 and easy access to all major highways and arteries.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>We were very pleased with the accommodations. Motel looks very good, well kept. The room was clean and nicely furnished. We had a non-smoking room on the ground floor as requested and were able to park right in front of our room even after returning from an evening at Huntington Beach--approx. 5 mi. away and easy to get to. The surrounding neighborhood was nice with access to a variety of stores, restaurants and fast-food nearby. This motel is budget priced and would be perfect for a budget-minded family wanting to visit the sights nearby in Anaheim, Buena Park, and Huntington Beach-aka "Surf City". It's right off the 405 and easy access to all major highways and arteries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r120445326-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
+  </si>
+  <si>
+    <t>120445326</t>
+  </si>
+  <si>
+    <t>11/10/2011</t>
+  </si>
+  <si>
+    <t>they have no clue what service and a acceptable room is</t>
+  </si>
+  <si>
+    <t>main light in room was burned out,  wall switch to turn it on was broken,  light burned out over sink.  lowest wattage florescent bulbs they could find,  was so dark,  could not tell if it was clean or dirty.   if you want wireless  the main network is a pay one,  the hotel wireless majority of the time if could not be found and I was above the office on the 3rd floor.  gal working the desk when I checked out wanted to argue how great their wireless connection was.   they will not admit to substandard service.can not recommend to anyone based on my experience,  Motel 6 would have been a better choiceMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>main light in room was burned out,  wall switch to turn it on was broken,  light burned out over sink.  lowest wattage florescent bulbs they could find,  was so dark,  could not tell if it was clean or dirty.   if you want wireless  the main network is a pay one,  the hotel wireless majority of the time if could not be found and I was above the office on the 3rd floor.  gal working the desk when I checked out wanted to argue how great their wireless connection was.   they will not admit to substandard service.can not recommend to anyone based on my experience,  Motel 6 would have been a better choiceMore</t>
   </si>
 </sst>
 </file>
@@ -648,6 +945,772 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>62</v>
+      </c>
+      <c r="X6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>62</v>
+      </c>
+      <c r="X7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>62</v>
+      </c>
+      <c r="X9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>71</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8014</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>114</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_595.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_595.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Long P</t>
   </si>
   <si>
     <t>07/08/2018</t>
@@ -195,6 +198,9 @@
 Oh... the breakfast was...Bed bugs!!! We stayed Aug 4th-7th in room 309. My daughter was chewed up bad, two nights. After the first we figured sand fleas from the beach, or ..something... we never thought of an infested room. The last night we found one of them and took it to the front office. They admitted it. Said they had the mattress replaced the previous week and that they had sprayed. We packed our clothes in plastic bags, and when we got home we had to do laundry out of the backyard. No settlement was offered from the staff. Said we would have to contact the manager by phone, which we did do. Their offer of 1 free night and 10% off the other two nights was not acceptable. This wasn't a situation that happened, this was an ordeal. I put her off and contacted corp, Choice Hotels. They did nothing. They said they don't own the chain, and shut me down. Come to find out, Choice Hotels has LMA's with every different franchisee. They are, in fact, on paper, the employee. CH is a shell corporation designed to avoid and shelter them from the messy side of the business. I would avoid all Choice Hotels properties.Finally, the hotel, while attempting to credit my account with the offered settlement, failed three times to get it right. They inadvertently charged my account an additional $705! Incompetent at every level. Oh... the breakfast was pretty good. More</t>
   </si>
   <si>
+    <t>nygf1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r494107115-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>The hotel was a good value but nothing special. The room and bathroom were clean and looked to be freshly painted.We had problems with the bathroom during our stay. One night we came back to the room to find that water/??? had backed up through the shower drain and onto the bathroom floor. The girl at the front desk did a good job of getting us a nearby room for us to transfer out things and move into. The set up of the shower in the first room was poor. They had installed a curved curtain rod. The shower curtain in the middle was outside the confines of the shower and water ran all over the bathroom floor. The complementary breakfast was not as good as I have had at the local Best Western. After eating there for two days that was enough and I went out and paid for breakfast.More</t>
   </si>
   <si>
+    <t>Jeff M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r493398515-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>Good location and not far from the beach. Free parking and a decent full hot breakfast. Shower and tv worked well in the room. Everything was clean and I had no issues. Can stay for under $90 a night so it is a good value.More</t>
   </si>
   <si>
+    <t>Kosmayer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r410622341-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>I was driving to my next presentation spot in Newport Beach, was already 8pm and didn't have a place to stay for the night.  Saw this quality in on the drive and thought I'd give it a try.  The price was excellent, the room was clean and mattress was firm, and the breakfast was decent for such an inexpensive nights stay.  Overall I'm impressed and would recommend this hotel. More</t>
   </si>
   <si>
+    <t>Norma D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r404255522-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>King bed for 1 night.  The room was big and the bed clean &amp; comfy.  The bathroom floor not as clean as it should have been.  We checked in late, so no housekeeping to remedy and no other rooms to switch too.  We ended up doing a tiny bit of cleaning, but acceptable all around.  Good free breakfast and wifi.  Had a bit of problem with the door handle/lock, lot of jiggling done, but again nothing major.  Would stay againMore</t>
   </si>
   <si>
+    <t>debbyklm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r378352385-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>Stayed in room 209.  Extended family members had room 202 and 207.  Room 202 was by far superior to our room.Bed was comfortable; not too hard or soft.Lighting in vanity area was bad.  Only one outlet near the sink.  Had to use the desk lamp so that there was enough light.  Bad thing was that the cord had to stretch across the sink.  The rest of the room's outlets were either inaccessible due to furniture placement in front of them or so far away from any furniture that you had to leave your electronics charging on the floor.  The desk area had no outlets for the lamp.Towels were very thin and scratchy.Hotel was clean; breakfast was well stocked, staff was friendly and helpful; definitely a budget hotel.More</t>
   </si>
   <si>
+    <t>TD N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r348037045-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -325,6 +346,9 @@
   </si>
   <si>
     <t>My wife and I were at the place for one night due to fumigation of our apartment. The only thing decent was the comfortable bed. The ac was quite loud. Curtains missing hooks that could not be closed properly to prevent outside light from getting in. The bathroom smelled of urine and the toilet seat was coming off hinges. The area was a bit nasty. We saw a fight on our walk to a Mexican dinner across the street from the motel. The front desk person, an older Asian male, was slow, uninformative, unfriendly and impolite, answered your question with a smirk as though he was doing us a favor, if he decided to answer at all. We forgot our toothbrushes/paste, and saw sign in room stating that essential toiletries were available for the asking at front desk. Once there, the same front desk person pointed out the door and said sarcastically that brushes and paste would be available at a 7-11 nearby, completely unapologetic of misleading information.  That front desk person should not be in the hospitality industry at all let alone working at front desk; there was no hello, goodbye, have a nice stay nor even a smile from this person. He acted the whole time as if we were wasting his time. I would neither recommend nor stay at the place again.More</t>
+  </si>
+  <si>
+    <t>Paul A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r262525551-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
@@ -350,6 +374,9 @@
     <t>Pros:  Nice looking property, large screen flat TV, at least 30+ channels
 Cons: Roaches were found on first night crawling across my nightstand...small but nevertheless roaches, found a total of 3 bedbugs within 3 hours of sleeping
 After going to bed I awoke a couple hours later due to severe itching due to eczema, but when I got up to put some ointment on I decided to check my bed just to be sure.  Sure enough, I discovered a small bedbug near my pillow, but I hadn't been bitten yet.  I killed that one and checked the entire bed, AND sprayed with my bedbug spray.  I was paranoid but finally decided to lay back down after about a half-hour (this was around 3:00am).  A couple hours later I felt a different type of itching...I quickly got up and used my phone's light to light up the bed and found 2 adult bedbugs near the middle of my bed and towards my pillow.  I wasn't so lucky this time.  I had been bitten on my hand, two places on my right tricep and 5 places on my left tricep.  This was 5:30am and I had only about 3 hrs of sleep (on my only day off), from there I packed my bags (this was the first night of a two night stay), loaded up my car and waited for the office to open.  The manager sounded a little aggravated and said...Pros:  Nice looking property, large screen flat TV, at least 30+ channelsCons: Roaches were found on first night crawling across my nightstand...small but nevertheless roaches, found a total of 3 bedbugs within 3 hours of sleepingAfter going to bed I awoke a couple hours later due to severe itching due to eczema, but when I got up to put some ointment on I decided to check my bed just to be sure.  Sure enough, I discovered a small bedbug near my pillow, but I hadn't been bitten yet.  I killed that one and checked the entire bed, AND sprayed with my bedbug spray.  I was paranoid but finally decided to lay back down after about a half-hour (this was around 3:00am).  A couple hours later I felt a different type of itching...I quickly got up and used my phone's light to light up the bed and found 2 adult bedbugs near the middle of my bed and towards my pillow.  I wasn't so lucky this time.  I had been bitten on my hand, two places on my right tricep and 5 places on my left tricep.  This was 5:30am and I had only about 3 hrs of sleep (on my only day off), from there I packed my bags (this was the first night of a two night stay), loaded up my car and waited for the office to open.  The manager sounded a little aggravated and said he would check my room.  I went with him, showed him one of the dead roaches that I left on the bathroom floor (yes, one was crawling along side the bathroom sink), and showed him the small blood stain on the bed sheet that I created when I killed the last bedbug and he refunded my remaining night.  My hotel room # was:  107.  That whole room needs to be fumigated.  I also discovered a very small unidentifiable bug crawling down the shower curtain too!  I've never had a good experience with Knight's Inn.  Their properties, in my opinion, are completely sub-par!!!More</t>
+  </si>
+  <si>
+    <t>Quang P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r219161183-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
@@ -382,6 +409,9 @@
 About the room, I agree...This hotel is also known as Little Saigon Hotel when I searched for a place to stay for July 25/26/2014 weekend during my short trip to LA. I booked/reserved on their web site for two nights at the rate of $100/night.So I checked in on Friday evening, the next day while I was out visiting friends, the hotel manager Ms. Van called and asked me to vacate the room or I had to pay higher rate if I wanted to stay. I was totally in shock and speechless when she explained due to high demand, she followed the owner/franchisee instruction to bump the current guests or make them pay higher rate if they want to stay. Needless to say, I was furious but eventually allowed them to charge 30% more for the second night because I was too far away with my friends in another city. I thought what they did was illegal or the manager was lying. Anyway I have receipt of the reservation and have disputed the excess charge with my credit card company.I suspected this was not an isolated incident. The majority of hotel guests were Asian like myself, some probably were ripped off by the hotel owner/management too but remained quiet or lacked the will to resolve. I compel to warn others to stay away from this hotel or risk of your vacation being ruined by their questionable tactic.About the room, I agree with others, who reviewed it, I rated it as 1.5 stars. I’d rather pay a little more to stay at a nicer hotel and there are plenty to choose from in the proximity.More</t>
   </si>
   <si>
+    <t>5280vhc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r156209849-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -405,6 +435,9 @@
 Please think twice about staying here, for a few more bucks you could stay somewhere better. Another thing to notice about this property is that it is overcrowded with big families trying to...We had booked this reservation based on pictures we had seen on Hotwire. The hotel was not one of the most expensive but it wasn't' one of the cheapest either. I thought that it would be fine. I was way wrong! We got to California super exhausted from a long drive and had to wait until 3:00 pm to check-in. Upon checking in, we got our rooms. The room I got had carpet stains, mismatched furniture, a cracked counter top ... all things that in my mind I thought I could perhaps overlook. I went into the bathroom and there was a pubic hair stuck on the bathtub. That is where things went downhill. I went to a different room from a member of our party and their room stunk like cigarettes (although I had added in the comments that we would need a non-smoking room). The furniture and everything else was horrible as well. We called the front desk and the attendant said that she had no more rooms and would refund our money for both rooms. We got our things and left out of there as soon as we could. I am not a picky person and am very understandable but this hotel was unacceptable. Please think twice about staying here, for a few more bucks you could stay somewhere better. Another thing to notice about this property is that it is overcrowded with big families trying to fit 6+ into one bedroom.More</t>
   </si>
   <si>
+    <t>YAYASister70128</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r141777859-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
   </si>
   <si>
@@ -424,6 +457,9 @@
   </si>
   <si>
     <t>We were very pleased with the accommodations. Motel looks very good, well kept. The room was clean and nicely furnished. We had a non-smoking room on the ground floor as requested and were able to park right in front of our room even after returning from an evening at Huntington Beach--approx. 5 mi. away and easy to get to. The surrounding neighborhood was nice with access to a variety of stores, restaurants and fast-food nearby. This motel is budget priced and would be perfect for a budget-minded family wanting to visit the sights nearby in Anaheim, Buena Park, and Huntington Beach-aka "Surf City". It's right off the 405 and easy access to all major highways and arteries.More</t>
+  </si>
+  <si>
+    <t>mslibbyofMoncton</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33260-d82623-r120445326-Quality_Inn_Suites_Westminster_Seal_Beach-Westminster_California.html</t>
@@ -949,43 +985,47 @@
       <c r="A2" t="n">
         <v>8014</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -997,47 +1037,51 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>8014</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -1054,56 +1098,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>8014</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1115,56 +1163,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>8014</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1176,56 +1228,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>8014</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1241,56 +1297,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>8014</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1306,56 +1366,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>8014</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -1373,56 +1437,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8014</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>108</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1438,56 +1506,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>8014</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1507,50 +1579,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>8014</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1574,50 +1650,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>8014</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -1641,50 +1721,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>8014</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="O13" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -1708,7 +1792,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
